--- a/named_range.xlsx
+++ b/named_range.xlsx
@@ -461,7 +461,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -500,7 +500,7 @@
       </c>
       <c r="E2" s="1" t="inlineStr">
         <is>
-          <t>JPN</t>
+          <t>JPY</t>
         </is>
       </c>
     </row>

--- a/named_range.xlsx
+++ b/named_range.xlsx
@@ -11,6 +11,7 @@
   </sheets>
   <definedNames>
     <definedName name="fx_rates">Data!$N$3:$O$11</definedName>
+    <definedName name="products">'Products'!$A$3:$B$8</definedName>
   </definedNames>
   <calcPr calcId="181029" fullCalcOnLoad="1"/>
 </workbook>
